--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="实体模板" sheetId="5" r:id="rId1"/>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1687,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2206,7 +2206,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="实体模板" sheetId="5" r:id="rId1"/>
@@ -248,7 +248,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+符合条件才拼接变量内容。单个条件格式：键,操作符,值。操作符包括：=,!=,&lt;&gt;。空值用null表示。
+注：目前只支持单个条件！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_DB_KEY#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库列的主外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_DB_NOT_NULL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库列是否非空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,14 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库所有列名，以逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_ID,CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大驼峰式实体名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,18 +580,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">            public static string #COL_NAME# = "#COL_DB_NAME#";</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.DBColName("#COL_DB_NAME#")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#SET_ENT_COL_NOT_NULL#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,14 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.DBLen(#COL_DB_LEN#)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.DBPrecision(#COL_DB_DEC_BEG#)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.DBScale(#COL_DB_DEC_END#)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,18 +652,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.DBDefault("#COL_DB_DEF_VAL#")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#COL_NAME_CN#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.FieldName("#COL_NAME_CN#")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#COL_ENT_TYPE#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -680,10 +665,6 @@
   </si>
   <si>
     <t>#COL_DB_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.DBComment("#COL_DB_EXT#")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -761,10 +742,6 @@
   </si>
   <si>
     <t>#COL_STR_VAR#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME_ALL#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1021,6 +998,78 @@
   </si>
   <si>
     <t>#ENT_NAME_CLASS#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DBColName("#COL_DB_NAME#")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DBLen(#COL_DB_LEN#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DBPrecision(#COL_DB_DEC_BEG#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DBDefault("#COL_DB_DEF_VAL#")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.FieldName("#COL_NAME_CN#")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DBComment("#COL_DB_EXT#")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_LEN#,!=,null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_BEG#,!=,null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_END#,!=,null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#,=,PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_CN#,!=,null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_EXT#,!=,null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEF_VAL#,!=,null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#,=,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,9 +1210,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1178,6 +1224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1516,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1534,8 +1583,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1569,33 +1618,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1603,77 +1652,77 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>104</v>
+      <c r="B5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>104</v>
+      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="B8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1685,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1696,11 +1745,12 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1711,485 +1761,502 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>2</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
-        <v>2</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">

--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="实体模板" sheetId="5" r:id="rId1"/>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="144">
   <si>
     <t>变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1070,6 +1070,18 @@
   </si>
   <si>
     <t>变量内容条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,40 +1544,50 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
     <col min="2" max="2" width="87.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1605,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
